--- a/input/terms_en2zh.xlsx
+++ b/input/terms_en2zh.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Projects\pro_translator\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Projects\pro_translator\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95299F82-843C-41E1-A5F9-77C9B8DD9C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766A725-1B92-48DB-A362-E9EBB493F30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6172" uniqueCount="6160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="6066">
   <si>
     <t xml:space="preserve">Interleukin 10 </t>
   </si>
@@ -8332,12 +8345,6 @@
     <t>重度</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>种</t>
-  </si>
-  <si>
     <t>mass</t>
   </si>
   <si>
@@ -8620,12 +8627,6 @@
     <t>厌食</t>
   </si>
   <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>眼</t>
-  </si>
-  <si>
     <t>eyelids</t>
   </si>
   <si>
@@ -8662,12 +8663,6 @@
     <t>牙垢</t>
   </si>
   <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>牙</t>
-  </si>
-  <si>
     <t>serum lipid</t>
   </si>
   <si>
@@ -8758,12 +8753,6 @@
     <t>休克</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>雄</t>
-  </si>
-  <si>
     <t>thymus</t>
   </si>
   <si>
@@ -9208,12 +9197,6 @@
     <t>失血</t>
   </si>
   <si>
-    <t>kidney</t>
-  </si>
-  <si>
-    <t>肾</t>
-  </si>
-  <si>
     <t>renal pelvis</t>
   </si>
   <si>
@@ -9436,24 +9419,12 @@
     <t>评价</t>
   </si>
   <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>系</t>
-  </si>
-  <si>
     <t>anemia</t>
   </si>
   <si>
     <t>贫血</t>
   </si>
   <si>
-    <t>spleen</t>
-  </si>
-  <si>
-    <t>脾</t>
-  </si>
-  <si>
     <t>cortex</t>
   </si>
   <si>
@@ -9538,12 +9509,6 @@
     <t>凝血</t>
   </si>
   <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>尿</t>
-  </si>
-  <si>
     <t>Acidum Uricum</t>
   </si>
   <si>
@@ -10222,12 +10187,6 @@
     <t>干呕</t>
   </si>
   <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>肝</t>
-  </si>
-  <si>
     <t>calcification</t>
   </si>
   <si>
@@ -10444,12 +10403,6 @@
     <t>滴注</t>
   </si>
   <si>
-    <t>duct</t>
-  </si>
-  <si>
-    <t>管</t>
-  </si>
-  <si>
     <t>archives</t>
   </si>
   <si>
@@ -10546,12 +10499,6 @@
     <t>刺激</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>雌</t>
-  </si>
-  <si>
     <t>pure water</t>
   </si>
   <si>
@@ -10804,168 +10751,12 @@
     <t>C肽</t>
   </si>
   <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>转</t>
-  </si>
-  <si>
-    <t>foci</t>
-  </si>
-  <si>
-    <t>灶</t>
-  </si>
-  <si>
-    <t>gnawing</t>
-  </si>
-  <si>
-    <t>咬</t>
-  </si>
-  <si>
-    <t>pharynx</t>
-  </si>
-  <si>
-    <t>咽</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>胃</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>铁</t>
-  </si>
-  <si>
-    <t>licking</t>
-  </si>
-  <si>
-    <t>舔</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>舌</t>
-  </si>
-  <si>
-    <t>Even</t>
-  </si>
-  <si>
-    <t>齐</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
     <t>阶段</t>
   </si>
   <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>脑</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>镁</t>
-  </si>
-  <si>
-    <t>phosphorus</t>
-  </si>
-  <si>
-    <t>磷</t>
-  </si>
-  <si>
-    <t>vocalization</t>
-  </si>
-  <si>
-    <t>叫</t>
-  </si>
-  <si>
-    <t>crust</t>
-  </si>
-  <si>
-    <t>痂</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>灰</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>黄</t>
-  </si>
-  <si>
-    <t>larynx</t>
-  </si>
-  <si>
-    <t>喉</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>骨</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>钙</t>
-  </si>
-  <si>
-    <t>lung</t>
-  </si>
-  <si>
-    <t>肺</t>
-  </si>
-  <si>
-    <t>ears</t>
-  </si>
-  <si>
-    <t>耳</t>
-  </si>
-  <si>
-    <t>stalk</t>
-  </si>
-  <si>
-    <t>蒂</t>
-  </si>
-  <si>
-    <t>increased size</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>鼻</t>
-  </si>
-  <si>
-    <t>carcinoma</t>
-  </si>
-  <si>
-    <t>癌</t>
-  </si>
-  <si>
     <t>incidental</t>
   </si>
   <si>
@@ -11377,12 +11168,6 @@
     <t>动物</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>犬</t>
-  </si>
-  <si>
     <t>mucous membrane</t>
   </si>
   <si>
@@ -12697,12 +12482,6 @@
     <t>储存于本机构留样档案室</t>
   </si>
   <si>
-    <t>approximately</t>
-  </si>
-  <si>
-    <t>约</t>
-  </si>
-  <si>
     <t>whole blood</t>
   </si>
   <si>
@@ -12715,12 +12494,6 @@
     <t>收集</t>
   </si>
   <si>
-    <t>containing</t>
-  </si>
-  <si>
-    <t>含</t>
-  </si>
-  <si>
     <t>anticoagulant tube</t>
   </si>
   <si>
@@ -15163,12 +14936,6 @@
     <t>羟丙基-β-环糊精</t>
   </si>
   <si>
-    <t>thoracic</t>
-  </si>
-  <si>
-    <t>胸</t>
-  </si>
-  <si>
     <t>Within-run Accuracy and Precision</t>
   </si>
   <si>
@@ -15223,18 +14990,6 @@
     <t>结节性峡部输卵管炎</t>
   </si>
   <si>
-    <t>cervical</t>
-  </si>
-  <si>
-    <t>颈</t>
-  </si>
-  <si>
-    <t>lumbar</t>
-  </si>
-  <si>
-    <t>腰</t>
-  </si>
-  <si>
     <t>acute myelocytic leukemia</t>
   </si>
   <si>
@@ -16759,12 +16514,6 @@
     <t>淋巴</t>
   </si>
   <si>
-    <t>sheath</t>
-  </si>
-  <si>
-    <t>鞘</t>
-  </si>
-  <si>
     <t>electron</t>
   </si>
   <si>
@@ -16885,12 +16634,6 @@
     <t>表皮细胞</t>
   </si>
   <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>内</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
@@ -17101,12 +16844,6 @@
     <t>长形</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>伴</t>
-  </si>
-  <si>
     <t>enlarged</t>
   </si>
   <si>
@@ -17669,12 +17406,6 @@
   </si>
   <si>
     <t>皮肤刺激试验</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>批</t>
   </si>
   <si>
     <t>Maximum Number of Samples in a Run</t>
@@ -18839,10 +18570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3086"/>
+  <dimension ref="A1:B3039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3055" workbookViewId="0">
-      <selection activeCell="D3069" sqref="D3069"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33264,300 +32995,300 @@
         <v>3602</v>
       </c>
       <c r="B1802" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1803" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B1803" t="s">
         <v>3604</v>
-      </c>
-      <c r="B1803" t="s">
-        <v>3605</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1804" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1804" t="s">
         <v>3606</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1805" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B1805" t="s">
         <v>3608</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>3609</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1806" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B1806" t="s">
         <v>3610</v>
-      </c>
-      <c r="B1806" t="s">
-        <v>3611</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1807" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1807" t="s">
         <v>3612</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>3613</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1808" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B1808" t="s">
         <v>3614</v>
-      </c>
-      <c r="B1808" t="s">
-        <v>3615</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1809" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1809" t="s">
         <v>3616</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>3617</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1810" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B1810" t="s">
         <v>3618</v>
-      </c>
-      <c r="B1810" t="s">
-        <v>3619</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1811" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1811" t="s">
         <v>3620</v>
-      </c>
-      <c r="B1811" t="s">
-        <v>3621</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1812" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1812" t="s">
         <v>3622</v>
-      </c>
-      <c r="B1812" t="s">
-        <v>3623</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1813" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1813" t="s">
         <v>3624</v>
-      </c>
-      <c r="B1813" t="s">
-        <v>3625</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1814" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1814" t="s">
         <v>3626</v>
-      </c>
-      <c r="B1814" t="s">
-        <v>3627</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1815" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1815" t="s">
         <v>3628</v>
-      </c>
-      <c r="B1815" t="s">
-        <v>3629</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1816" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1816" t="s">
         <v>3630</v>
-      </c>
-      <c r="B1816" t="s">
-        <v>3631</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1817" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B1817" t="s">
         <v>3632</v>
-      </c>
-      <c r="B1817" t="s">
-        <v>3633</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1818" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B1818" t="s">
         <v>3634</v>
-      </c>
-      <c r="B1818" t="s">
-        <v>3635</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1819" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B1819" t="s">
         <v>3636</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>3637</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1820" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B1820" t="s">
         <v>3638</v>
-      </c>
-      <c r="B1820" t="s">
-        <v>3639</v>
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1821" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B1821" t="s">
         <v>3640</v>
-      </c>
-      <c r="B1821" t="s">
-        <v>3641</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1822" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B1822" t="s">
         <v>3642</v>
-      </c>
-      <c r="B1822" t="s">
-        <v>3643</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1823" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1823" t="s">
         <v>3644</v>
-      </c>
-      <c r="B1823" t="s">
-        <v>3645</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1824" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B1824" t="s">
         <v>3646</v>
-      </c>
-      <c r="B1824" t="s">
-        <v>3647</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1825" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1825" t="s">
         <v>3648</v>
-      </c>
-      <c r="B1825" t="s">
-        <v>3649</v>
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1826" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1826" t="s">
         <v>3650</v>
-      </c>
-      <c r="B1826" t="s">
-        <v>3651</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1827" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B1827" t="s">
         <v>3652</v>
-      </c>
-      <c r="B1827" t="s">
-        <v>3653</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1828" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1828" t="s">
         <v>3654</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>3655</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1829" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1829" t="s">
         <v>3656</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>3657</v>
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1830" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1830" t="s">
         <v>3658</v>
-      </c>
-      <c r="B1830" t="s">
-        <v>3659</v>
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1831" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1831" t="s">
         <v>3660</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>3661</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1832" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B1832" t="s">
         <v>3662</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>3663</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1833" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B1833" t="s">
         <v>3664</v>
-      </c>
-      <c r="B1833" t="s">
-        <v>3665</v>
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1834" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B1834" t="s">
         <v>3666</v>
-      </c>
-      <c r="B1834" t="s">
-        <v>3667</v>
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1835" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1835" t="s">
         <v>3668</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>3669</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1836" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B1836" t="s">
         <v>3670</v>
-      </c>
-      <c r="B1836" t="s">
-        <v>3671</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1837" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B1837" t="s">
         <v>3672</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>3673</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1838" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B1838" t="s">
         <v>3674</v>
-      </c>
-      <c r="B1838" t="s">
-        <v>3675</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1839" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="B1839" t="s">
         <v>3676</v>
@@ -34168,876 +33899,876 @@
         <v>3827</v>
       </c>
       <c r="B1915" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1916" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B1916" t="s">
         <v>3829</v>
-      </c>
-      <c r="B1916" t="s">
-        <v>3830</v>
       </c>
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1917" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1917" t="s">
         <v>3831</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>3832</v>
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1918" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B1918" t="s">
         <v>3833</v>
-      </c>
-      <c r="B1918" t="s">
-        <v>3834</v>
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1919" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1919" t="s">
         <v>3835</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>3836</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1920" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1920" t="s">
         <v>3837</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>3838</v>
       </c>
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1921" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B1921" t="s">
         <v>3839</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>3840</v>
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1922" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B1922" t="s">
         <v>3841</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>3842</v>
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1923" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1923" t="s">
         <v>3843</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>3844</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1924" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B1924" t="s">
         <v>3845</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>3846</v>
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1925" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1925" t="s">
         <v>3847</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>3848</v>
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1926" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1926" t="s">
         <v>3849</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>3850</v>
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1927" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1927" t="s">
         <v>3851</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>3852</v>
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1928" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="B1928" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1929" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="B1929" t="s">
-        <v>3856</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1930" t="s">
-        <v>3857</v>
+        <v>3854</v>
       </c>
       <c r="B1930" t="s">
-        <v>3858</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1931" t="s">
-        <v>3859</v>
+        <v>3856</v>
       </c>
       <c r="B1931" t="s">
-        <v>3860</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1932" t="s">
-        <v>3861</v>
+        <v>3858</v>
       </c>
       <c r="B1932" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1933" t="s">
-        <v>3863</v>
+        <v>3860</v>
       </c>
       <c r="B1933" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1934" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="B1934" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1935" t="s">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="B1935" t="s">
-        <v>3868</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1936" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
       <c r="B1936" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1937" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="B1937" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1938" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="B1938" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1939" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="B1939" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1940" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="B1940" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1941" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="B1941" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1942" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="B1942" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1943" t="s">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="B1943" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1944" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="B1944" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1945" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="B1945" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1946" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="B1946" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1947" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="B1947" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1948" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="B1948" t="s">
-        <v>3894</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1949" t="s">
-        <v>3895</v>
+        <v>3891</v>
       </c>
       <c r="B1949" t="s">
-        <v>3896</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1950" t="s">
-        <v>3897</v>
+        <v>3893</v>
       </c>
       <c r="B1950" t="s">
-        <v>3898</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1951" t="s">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="B1951" t="s">
-        <v>3900</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1952" t="s">
-        <v>3901</v>
+        <v>3897</v>
       </c>
       <c r="B1952" t="s">
-        <v>3902</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1953" t="s">
-        <v>3903</v>
+        <v>3899</v>
       </c>
       <c r="B1953" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1954" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="B1954" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1955" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="B1955" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1956" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="B1956" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1957" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="B1957" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1958" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="B1958" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1959" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="B1959" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1960" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="B1960" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1961" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
       <c r="B1961" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1962" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="B1962" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1963" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
       <c r="B1963" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1964" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="B1964" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1965" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="B1965" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1966" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="B1966" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1967" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="B1967" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1968" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1968" t="s">
         <v>3930</v>
-      </c>
-      <c r="B1968" t="s">
-        <v>3931</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1969" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B1969" t="s">
         <v>3932</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>3933</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1970" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B1970" t="s">
         <v>3934</v>
-      </c>
-      <c r="B1970" t="s">
-        <v>3935</v>
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1971" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B1971" t="s">
         <v>3936</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>3937</v>
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1972" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1972" t="s">
         <v>3938</v>
-      </c>
-      <c r="B1972" t="s">
-        <v>3939</v>
       </c>
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1973" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B1973" t="s">
         <v>3940</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>3941</v>
       </c>
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1974" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B1974" t="s">
         <v>3942</v>
-      </c>
-      <c r="B1974" t="s">
-        <v>3943</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1975" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B1975" t="s">
         <v>3944</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>3945</v>
       </c>
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1976" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1976" t="s">
         <v>3946</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>3947</v>
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1977" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B1977" t="s">
         <v>3948</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>3949</v>
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1978" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B1978" t="s">
         <v>3950</v>
-      </c>
-      <c r="B1978" t="s">
-        <v>3951</v>
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1979" t="s">
+        <v>3951</v>
+      </c>
+      <c r="B1979" t="s">
         <v>3952</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>3953</v>
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1980" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B1980" t="s">
         <v>3954</v>
-      </c>
-      <c r="B1980" t="s">
-        <v>3955</v>
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1981" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B1981" t="s">
         <v>3956</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>3957</v>
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1982" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B1982" t="s">
         <v>3958</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>3959</v>
       </c>
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1983" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B1983" t="s">
         <v>3960</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>3961</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1984" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1984" t="s">
         <v>3962</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>3963</v>
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1985" t="s">
+        <v>3963</v>
+      </c>
+      <c r="B1985" t="s">
         <v>3964</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>3965</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1986" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="B1986" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1987" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1987" t="s">
         <v>3967</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>3968</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1988" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1988" t="s">
         <v>3969</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>3970</v>
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1989" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B1989" t="s">
         <v>3971</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>3972</v>
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1990" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1990" t="s">
         <v>3973</v>
-      </c>
-      <c r="B1990" t="s">
-        <v>3974</v>
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1991" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B1991" t="s">
         <v>3975</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>3976</v>
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1992" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1992" t="s">
         <v>3977</v>
-      </c>
-      <c r="B1992" t="s">
-        <v>3978</v>
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1993" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B1993" t="s">
         <v>3979</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>3980</v>
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1994" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1994" t="s">
         <v>3981</v>
-      </c>
-      <c r="B1994" t="s">
-        <v>3982</v>
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1995" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1995" t="s">
         <v>3983</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>3984</v>
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1996" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B1996" t="s">
         <v>3985</v>
-      </c>
-      <c r="B1996" t="s">
-        <v>3986</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1997" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1997" t="s">
         <v>3987</v>
-      </c>
-      <c r="B1997" t="s">
-        <v>3988</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1998" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1998" t="s">
         <v>3989</v>
-      </c>
-      <c r="B1998" t="s">
-        <v>3990</v>
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1999" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1999" t="s">
         <v>3991</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>3992</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2000" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B2000" t="s">
         <v>3993</v>
-      </c>
-      <c r="B2000" t="s">
-        <v>3994</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2001" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B2001" t="s">
         <v>3995</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>3996</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2002" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B2002" t="s">
         <v>3997</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>3998</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2003" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B2003" t="s">
         <v>3999</v>
-      </c>
-      <c r="B2003" t="s">
-        <v>4000</v>
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2004" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B2004" t="s">
         <v>4001</v>
-      </c>
-      <c r="B2004" t="s">
-        <v>4002</v>
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2005" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B2005" t="s">
         <v>4003</v>
-      </c>
-      <c r="B2005" t="s">
-        <v>4004</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2006" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B2006" t="s">
         <v>4005</v>
-      </c>
-      <c r="B2006" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2007" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B2007" t="s">
         <v>4007</v>
-      </c>
-      <c r="B2007" t="s">
-        <v>4008</v>
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2008" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B2008" t="s">
         <v>4009</v>
-      </c>
-      <c r="B2008" t="s">
-        <v>4010</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2009" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B2009" t="s">
         <v>4011</v>
-      </c>
-      <c r="B2009" t="s">
-        <v>4012</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2010" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B2010" t="s">
         <v>4013</v>
-      </c>
-      <c r="B2010" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2011" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B2011" t="s">
         <v>4015</v>
-      </c>
-      <c r="B2011" t="s">
-        <v>4016</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2012" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2012" t="s">
         <v>4017</v>
-      </c>
-      <c r="B2012" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2013" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B2013" t="s">
         <v>4019</v>
-      </c>
-      <c r="B2013" t="s">
-        <v>4020</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2014" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B2014" t="s">
         <v>4021</v>
-      </c>
-      <c r="B2014" t="s">
-        <v>4022</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2015" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B2015" t="s">
         <v>4023</v>
-      </c>
-      <c r="B2015" t="s">
-        <v>4024</v>
       </c>
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2016" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B2016" t="s">
         <v>4025</v>
-      </c>
-      <c r="B2016" t="s">
-        <v>4026</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2017" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B2017" t="s">
         <v>4027</v>
-      </c>
-      <c r="B2017" t="s">
-        <v>4028</v>
       </c>
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2018" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B2018" t="s">
         <v>4029</v>
-      </c>
-      <c r="B2018" t="s">
-        <v>4030</v>
       </c>
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2019" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B2019" t="s">
         <v>4031</v>
-      </c>
-      <c r="B2019" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2020" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B2020" t="s">
         <v>4033</v>
-      </c>
-      <c r="B2020" t="s">
-        <v>4034</v>
       </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2021" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B2021" t="s">
         <v>4035</v>
-      </c>
-      <c r="B2021" t="s">
-        <v>4036</v>
       </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2022" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B2022" t="s">
         <v>4037</v>
-      </c>
-      <c r="B2022" t="s">
-        <v>4038</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2023" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B2023" t="s">
         <v>4039</v>
-      </c>
-      <c r="B2023" t="s">
-        <v>4040</v>
       </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2024" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="B2024" t="s">
         <v>4041</v>
@@ -35192,308 +34923,308 @@
         <v>4078</v>
       </c>
       <c r="B2043" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2044" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B2044" t="s">
         <v>4080</v>
-      </c>
-      <c r="B2044" t="s">
-        <v>4081</v>
       </c>
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2045" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B2045" t="s">
         <v>4082</v>
-      </c>
-      <c r="B2045" t="s">
-        <v>4083</v>
       </c>
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2046" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B2046" t="s">
         <v>4084</v>
-      </c>
-      <c r="B2046" t="s">
-        <v>4085</v>
       </c>
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2047" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2047" t="s">
         <v>4086</v>
-      </c>
-      <c r="B2047" t="s">
-        <v>4087</v>
       </c>
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2048" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B2048" t="s">
         <v>4088</v>
-      </c>
-      <c r="B2048" t="s">
-        <v>4089</v>
       </c>
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2049" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B2049" t="s">
         <v>4090</v>
-      </c>
-      <c r="B2049" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2050" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B2050" t="s">
         <v>4092</v>
-      </c>
-      <c r="B2050" t="s">
-        <v>4093</v>
       </c>
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2051" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B2051" t="s">
         <v>4094</v>
-      </c>
-      <c r="B2051" t="s">
-        <v>4095</v>
       </c>
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2052" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2052" t="s">
         <v>4096</v>
-      </c>
-      <c r="B2052" t="s">
-        <v>4097</v>
       </c>
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2053" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B2053" t="s">
         <v>4098</v>
-      </c>
-      <c r="B2053" t="s">
-        <v>4099</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2054" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B2054" t="s">
         <v>4100</v>
-      </c>
-      <c r="B2054" t="s">
-        <v>4101</v>
       </c>
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2055" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2055" t="s">
         <v>4102</v>
-      </c>
-      <c r="B2055" t="s">
-        <v>4103</v>
       </c>
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2056" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B2056" t="s">
         <v>4104</v>
-      </c>
-      <c r="B2056" t="s">
-        <v>4105</v>
       </c>
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2057" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B2057" t="s">
         <v>4106</v>
-      </c>
-      <c r="B2057" t="s">
-        <v>4107</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2058" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B2058" t="s">
         <v>4108</v>
-      </c>
-      <c r="B2058" t="s">
-        <v>4109</v>
       </c>
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2059" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B2059" t="s">
         <v>4110</v>
-      </c>
-      <c r="B2059" t="s">
-        <v>4111</v>
       </c>
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2060" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B2060" t="s">
         <v>4112</v>
-      </c>
-      <c r="B2060" t="s">
-        <v>4113</v>
       </c>
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2061" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2061" t="s">
         <v>4114</v>
-      </c>
-      <c r="B2061" t="s">
-        <v>4115</v>
       </c>
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2062" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B2062" t="s">
         <v>4116</v>
-      </c>
-      <c r="B2062" t="s">
-        <v>4117</v>
       </c>
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2063" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B2063" t="s">
         <v>4118</v>
-      </c>
-      <c r="B2063" t="s">
-        <v>4119</v>
       </c>
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2064" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B2064" t="s">
         <v>4120</v>
-      </c>
-      <c r="B2064" t="s">
-        <v>4121</v>
       </c>
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2065" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B2065" t="s">
         <v>4122</v>
-      </c>
-      <c r="B2065" t="s">
-        <v>4123</v>
       </c>
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2066" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B2066" t="s">
         <v>4124</v>
-      </c>
-      <c r="B2066" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2067" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B2067" t="s">
         <v>4126</v>
-      </c>
-      <c r="B2067" t="s">
-        <v>4127</v>
       </c>
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2068" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2068" t="s">
         <v>4128</v>
-      </c>
-      <c r="B2068" t="s">
-        <v>4129</v>
       </c>
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2069" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B2069" t="s">
         <v>4130</v>
-      </c>
-      <c r="B2069" t="s">
-        <v>4131</v>
       </c>
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2070" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B2070" t="s">
         <v>4132</v>
-      </c>
-      <c r="B2070" t="s">
-        <v>4133</v>
       </c>
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2071" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B2071" t="s">
         <v>4134</v>
-      </c>
-      <c r="B2071" t="s">
-        <v>4135</v>
       </c>
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2072" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B2072" t="s">
         <v>4136</v>
-      </c>
-      <c r="B2072" t="s">
-        <v>4137</v>
       </c>
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2073" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B2073" t="s">
         <v>4138</v>
-      </c>
-      <c r="B2073" t="s">
-        <v>4139</v>
       </c>
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2074" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B2074" t="s">
         <v>4140</v>
-      </c>
-      <c r="B2074" t="s">
-        <v>4141</v>
       </c>
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2075" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B2075" t="s">
         <v>4142</v>
-      </c>
-      <c r="B2075" t="s">
-        <v>4143</v>
       </c>
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2076" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B2076" t="s">
         <v>4144</v>
-      </c>
-      <c r="B2076" t="s">
-        <v>4145</v>
       </c>
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2077" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B2077" t="s">
         <v>4146</v>
-      </c>
-      <c r="B2077" t="s">
-        <v>4147</v>
       </c>
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2078" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B2078" t="s">
         <v>4148</v>
-      </c>
-      <c r="B2078" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2079" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B2079" t="s">
         <v>4150</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>4151</v>
       </c>
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2080" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B2080" t="s">
         <v>4152</v>
-      </c>
-      <c r="B2080" t="s">
-        <v>4153</v>
       </c>
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2081" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="B2081" t="s">
         <v>4154</v>
@@ -35504,324 +35235,324 @@
         <v>4155</v>
       </c>
       <c r="B2082" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2083" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B2083" t="s">
         <v>4157</v>
-      </c>
-      <c r="B2083" t="s">
-        <v>4158</v>
       </c>
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2084" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B2084" t="s">
         <v>4159</v>
-      </c>
-      <c r="B2084" t="s">
-        <v>4160</v>
       </c>
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2085" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B2085" t="s">
         <v>4161</v>
-      </c>
-      <c r="B2085" t="s">
-        <v>4162</v>
       </c>
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2086" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B2086" t="s">
         <v>4163</v>
-      </c>
-      <c r="B2086" t="s">
-        <v>4164</v>
       </c>
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2087" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B2087" t="s">
         <v>4165</v>
-      </c>
-      <c r="B2087" t="s">
-        <v>4166</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2088" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B2088" t="s">
         <v>4167</v>
-      </c>
-      <c r="B2088" t="s">
-        <v>4168</v>
       </c>
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2089" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B2089" t="s">
         <v>4169</v>
-      </c>
-      <c r="B2089" t="s">
-        <v>4170</v>
       </c>
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2090" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B2090" t="s">
         <v>4171</v>
-      </c>
-      <c r="B2090" t="s">
-        <v>4172</v>
       </c>
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2091" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B2091" t="s">
         <v>4173</v>
-      </c>
-      <c r="B2091" t="s">
-        <v>4174</v>
       </c>
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2092" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B2092" t="s">
         <v>4175</v>
-      </c>
-      <c r="B2092" t="s">
-        <v>4176</v>
       </c>
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2093" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B2093" t="s">
         <v>4177</v>
-      </c>
-      <c r="B2093" t="s">
-        <v>4178</v>
       </c>
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2094" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B2094" t="s">
         <v>4179</v>
-      </c>
-      <c r="B2094" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2095" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B2095" t="s">
         <v>4181</v>
-      </c>
-      <c r="B2095" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2096" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B2096" t="s">
         <v>4183</v>
-      </c>
-      <c r="B2096" t="s">
-        <v>4184</v>
       </c>
     </row>
     <row r="2097" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2097" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B2097" t="s">
         <v>4185</v>
-      </c>
-      <c r="B2097" t="s">
-        <v>4186</v>
       </c>
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2098" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B2098" t="s">
         <v>4187</v>
-      </c>
-      <c r="B2098" t="s">
-        <v>4188</v>
       </c>
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2099" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B2099" t="s">
         <v>4189</v>
-      </c>
-      <c r="B2099" t="s">
-        <v>4190</v>
       </c>
     </row>
     <row r="2100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2100" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B2100" t="s">
         <v>4191</v>
-      </c>
-      <c r="B2100" t="s">
-        <v>4192</v>
       </c>
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2101" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B2101" t="s">
         <v>4193</v>
-      </c>
-      <c r="B2101" t="s">
-        <v>4194</v>
       </c>
     </row>
     <row r="2102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2102" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B2102" t="s">
         <v>4195</v>
-      </c>
-      <c r="B2102" t="s">
-        <v>4196</v>
       </c>
     </row>
     <row r="2103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2103" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B2103" t="s">
         <v>4197</v>
-      </c>
-      <c r="B2103" t="s">
-        <v>4198</v>
       </c>
     </row>
     <row r="2104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2104" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B2104" t="s">
         <v>4199</v>
-      </c>
-      <c r="B2104" t="s">
-        <v>4200</v>
       </c>
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2105" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B2105" t="s">
         <v>4201</v>
-      </c>
-      <c r="B2105" t="s">
-        <v>4202</v>
       </c>
     </row>
     <row r="2106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2106" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B2106" t="s">
         <v>4203</v>
-      </c>
-      <c r="B2106" t="s">
-        <v>4204</v>
       </c>
     </row>
     <row r="2107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2107" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B2107" t="s">
         <v>4205</v>
-      </c>
-      <c r="B2107" t="s">
-        <v>4206</v>
       </c>
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2108" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B2108" t="s">
         <v>4207</v>
-      </c>
-      <c r="B2108" t="s">
-        <v>4208</v>
       </c>
     </row>
     <row r="2109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2109" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2109" t="s">
         <v>4209</v>
-      </c>
-      <c r="B2109" t="s">
-        <v>4210</v>
       </c>
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2110" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B2110" t="s">
         <v>4211</v>
-      </c>
-      <c r="B2110" t="s">
-        <v>4212</v>
       </c>
     </row>
     <row r="2111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2111" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B2111" t="s">
         <v>4213</v>
-      </c>
-      <c r="B2111" t="s">
-        <v>4214</v>
       </c>
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2112" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B2112" t="s">
         <v>4215</v>
-      </c>
-      <c r="B2112" t="s">
-        <v>4216</v>
       </c>
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2113" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B2113" t="s">
         <v>4217</v>
-      </c>
-      <c r="B2113" t="s">
-        <v>4218</v>
       </c>
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2114" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2114" t="s">
         <v>4219</v>
-      </c>
-      <c r="B2114" t="s">
-        <v>4220</v>
       </c>
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2115" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2115" t="s">
         <v>4221</v>
-      </c>
-      <c r="B2115" t="s">
-        <v>4222</v>
       </c>
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2116" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B2116" t="s">
         <v>4223</v>
-      </c>
-      <c r="B2116" t="s">
-        <v>4224</v>
       </c>
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2117" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B2117" t="s">
         <v>4225</v>
-      </c>
-      <c r="B2117" t="s">
-        <v>4226</v>
       </c>
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2118" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B2118" t="s">
         <v>4227</v>
-      </c>
-      <c r="B2118" t="s">
-        <v>4228</v>
       </c>
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2119" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B2119" t="s">
         <v>4229</v>
-      </c>
-      <c r="B2119" t="s">
-        <v>4230</v>
       </c>
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2120" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2120" t="s">
         <v>4231</v>
-      </c>
-      <c r="B2120" t="s">
-        <v>4232</v>
       </c>
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2121" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B2121" t="s">
         <v>4233</v>
-      </c>
-      <c r="B2121" t="s">
-        <v>4234</v>
       </c>
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2122" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B2122" t="s">
         <v>4235</v>
@@ -36192,332 +35923,332 @@
         <v>4326</v>
       </c>
       <c r="B2168" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2169" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="B2169" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2170" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="B2170" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2171" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="B2171" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2172" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="B2172" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="2173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2173" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="B2173" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2174" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="B2174" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="2175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2175" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="B2175" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="2176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2176" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="B2176" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2177" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="B2177" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2178" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="B2178" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2179" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="B2179" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2180" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="B2180" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2181" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="B2181" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2182" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="B2182" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2183" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="B2183" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2184" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="B2184" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2185" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="B2185" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2186" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="B2186" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2187" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="B2187" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2188" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="B2188" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2189" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="B2189" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2190" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="B2190" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2191" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="B2191" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2192" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="B2192" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2193" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="B2193" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2194" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="B2194" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2195" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="B2195" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2196" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="B2196" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2197" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="B2197" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2198" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="B2198" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2199" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="B2199" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2200" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="B2200" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2201" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="B2201" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2202" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="B2202" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2203" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="B2203" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2204" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="B2204" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2205" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="B2205" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2206" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="B2206" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2207" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="B2207" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2208" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="B2208" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2209" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B2209" t="s">
         <v>4407</v>
@@ -37104,324 +36835,324 @@
         <v>4552</v>
       </c>
       <c r="B2282" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2283" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B2283" t="s">
         <v>4554</v>
-      </c>
-      <c r="B2283" t="s">
-        <v>4555</v>
       </c>
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2284" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B2284" t="s">
         <v>4556</v>
-      </c>
-      <c r="B2284" t="s">
-        <v>4557</v>
       </c>
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2285" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B2285" t="s">
         <v>4558</v>
-      </c>
-      <c r="B2285" t="s">
-        <v>4559</v>
       </c>
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2286" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B2286" t="s">
         <v>4560</v>
-      </c>
-      <c r="B2286" t="s">
-        <v>4561</v>
       </c>
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2287" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B2287" t="s">
         <v>4562</v>
-      </c>
-      <c r="B2287" t="s">
-        <v>4563</v>
       </c>
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2288" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B2288" t="s">
         <v>4564</v>
-      </c>
-      <c r="B2288" t="s">
-        <v>4565</v>
       </c>
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2289" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B2289" t="s">
         <v>4566</v>
-      </c>
-      <c r="B2289" t="s">
-        <v>4567</v>
       </c>
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2290" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B2290" t="s">
         <v>4568</v>
-      </c>
-      <c r="B2290" t="s">
-        <v>4569</v>
       </c>
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2291" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B2291" t="s">
         <v>4570</v>
-      </c>
-      <c r="B2291" t="s">
-        <v>4571</v>
       </c>
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2292" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2292" t="s">
         <v>4572</v>
-      </c>
-      <c r="B2292" t="s">
-        <v>4573</v>
       </c>
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2293" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B2293" t="s">
         <v>4574</v>
-      </c>
-      <c r="B2293" t="s">
-        <v>4575</v>
       </c>
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2294" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B2294" t="s">
         <v>4576</v>
-      </c>
-      <c r="B2294" t="s">
-        <v>4577</v>
       </c>
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2295" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B2295" t="s">
         <v>4578</v>
-      </c>
-      <c r="B2295" t="s">
-        <v>4579</v>
       </c>
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2296" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B2296" t="s">
         <v>4580</v>
-      </c>
-      <c r="B2296" t="s">
-        <v>4581</v>
       </c>
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2297" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B2297" t="s">
         <v>4582</v>
-      </c>
-      <c r="B2297" t="s">
-        <v>4583</v>
       </c>
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2298" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B2298" t="s">
         <v>4584</v>
-      </c>
-      <c r="B2298" t="s">
-        <v>4585</v>
       </c>
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2299" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B2299" t="s">
         <v>4586</v>
-      </c>
-      <c r="B2299" t="s">
-        <v>4587</v>
       </c>
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2300" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B2300" t="s">
         <v>4588</v>
-      </c>
-      <c r="B2300" t="s">
-        <v>4589</v>
       </c>
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2301" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B2301" t="s">
         <v>4590</v>
-      </c>
-      <c r="B2301" t="s">
-        <v>4591</v>
       </c>
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2302" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B2302" t="s">
         <v>4592</v>
-      </c>
-      <c r="B2302" t="s">
-        <v>4593</v>
       </c>
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2303" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B2303" t="s">
         <v>4594</v>
-      </c>
-      <c r="B2303" t="s">
-        <v>4595</v>
       </c>
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2304" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B2304" t="s">
         <v>4596</v>
-      </c>
-      <c r="B2304" t="s">
-        <v>4597</v>
       </c>
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2305" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B2305" t="s">
         <v>4598</v>
-      </c>
-      <c r="B2305" t="s">
-        <v>4599</v>
       </c>
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2306" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B2306" t="s">
         <v>4600</v>
-      </c>
-      <c r="B2306" t="s">
-        <v>4601</v>
       </c>
     </row>
     <row r="2307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2307" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B2307" t="s">
         <v>4602</v>
-      </c>
-      <c r="B2307" t="s">
-        <v>4603</v>
       </c>
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2308" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B2308" t="s">
         <v>4604</v>
-      </c>
-      <c r="B2308" t="s">
-        <v>4605</v>
       </c>
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2309" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B2309" t="s">
         <v>4606</v>
-      </c>
-      <c r="B2309" t="s">
-        <v>4607</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2310" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B2310" t="s">
         <v>4608</v>
-      </c>
-      <c r="B2310" t="s">
-        <v>4609</v>
       </c>
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2311" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B2311" t="s">
         <v>4610</v>
-      </c>
-      <c r="B2311" t="s">
-        <v>4611</v>
       </c>
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2312" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B2312" t="s">
         <v>4612</v>
-      </c>
-      <c r="B2312" t="s">
-        <v>4613</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2313" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B2313" t="s">
         <v>4614</v>
-      </c>
-      <c r="B2313" t="s">
-        <v>4615</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2314" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B2314" t="s">
         <v>4616</v>
-      </c>
-      <c r="B2314" t="s">
-        <v>4617</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2315" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B2315" t="s">
         <v>4618</v>
-      </c>
-      <c r="B2315" t="s">
-        <v>4619</v>
       </c>
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2316" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B2316" t="s">
         <v>4620</v>
-      </c>
-      <c r="B2316" t="s">
-        <v>4621</v>
       </c>
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2317" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B2317" t="s">
         <v>4622</v>
-      </c>
-      <c r="B2317" t="s">
-        <v>4623</v>
       </c>
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2318" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B2318" t="s">
         <v>4624</v>
-      </c>
-      <c r="B2318" t="s">
-        <v>4625</v>
       </c>
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2319" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B2319" t="s">
         <v>4626</v>
-      </c>
-      <c r="B2319" t="s">
-        <v>4627</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2320" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B2320" t="s">
         <v>4628</v>
-      </c>
-      <c r="B2320" t="s">
-        <v>4629</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2321" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B2321" t="s">
         <v>4630</v>
-      </c>
-      <c r="B2321" t="s">
-        <v>4631</v>
       </c>
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2322" t="s">
-        <v>4632</v>
+        <v>4631</v>
       </c>
       <c r="B2322" t="s">
         <v>4632</v>
@@ -42104,380 +41835,380 @@
         <v>5801</v>
       </c>
       <c r="B2907" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="2908" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2908" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B2908" t="s">
         <v>5803</v>
-      </c>
-      <c r="B2908" t="s">
-        <v>5804</v>
       </c>
     </row>
     <row r="2909" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2909" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B2909" t="s">
         <v>5805</v>
-      </c>
-      <c r="B2909" t="s">
-        <v>5806</v>
       </c>
     </row>
     <row r="2910" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2910" t="s">
+        <v>5806</v>
+      </c>
+      <c r="B2910" t="s">
         <v>5807</v>
-      </c>
-      <c r="B2910" t="s">
-        <v>5808</v>
       </c>
     </row>
     <row r="2911" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2911" t="s">
+        <v>5808</v>
+      </c>
+      <c r="B2911" t="s">
         <v>5809</v>
-      </c>
-      <c r="B2911" t="s">
-        <v>5810</v>
       </c>
     </row>
     <row r="2912" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2912" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B2912" t="s">
         <v>5811</v>
-      </c>
-      <c r="B2912" t="s">
-        <v>5812</v>
       </c>
     </row>
     <row r="2913" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2913" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B2913" t="s">
         <v>5813</v>
-      </c>
-      <c r="B2913" t="s">
-        <v>5814</v>
       </c>
     </row>
     <row r="2914" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2914" t="s">
+        <v>5814</v>
+      </c>
+      <c r="B2914" t="s">
         <v>5815</v>
-      </c>
-      <c r="B2914" t="s">
-        <v>5816</v>
       </c>
     </row>
     <row r="2915" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2915" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B2915" t="s">
         <v>5817</v>
-      </c>
-      <c r="B2915" t="s">
-        <v>5818</v>
       </c>
     </row>
     <row r="2916" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2916" t="s">
+        <v>5818</v>
+      </c>
+      <c r="B2916" t="s">
         <v>5819</v>
-      </c>
-      <c r="B2916" t="s">
-        <v>5820</v>
       </c>
     </row>
     <row r="2917" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2917" t="s">
+        <v>5820</v>
+      </c>
+      <c r="B2917" t="s">
         <v>5821</v>
-      </c>
-      <c r="B2917" t="s">
-        <v>5822</v>
       </c>
     </row>
     <row r="2918" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2918" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B2918" t="s">
         <v>5823</v>
-      </c>
-      <c r="B2918" t="s">
-        <v>5824</v>
       </c>
     </row>
     <row r="2919" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2919" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B2919" t="s">
         <v>5825</v>
-      </c>
-      <c r="B2919" t="s">
-        <v>5826</v>
       </c>
     </row>
     <row r="2920" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2920" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B2920" t="s">
         <v>5827</v>
-      </c>
-      <c r="B2920" t="s">
-        <v>5828</v>
       </c>
     </row>
     <row r="2921" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2921" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B2921" t="s">
         <v>5829</v>
-      </c>
-      <c r="B2921" t="s">
-        <v>5830</v>
       </c>
     </row>
     <row r="2922" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2922" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B2922" t="s">
         <v>5831</v>
-      </c>
-      <c r="B2922" t="s">
-        <v>5832</v>
       </c>
     </row>
     <row r="2923" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2923" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B2923" t="s">
         <v>5833</v>
-      </c>
-      <c r="B2923" t="s">
-        <v>5834</v>
       </c>
     </row>
     <row r="2924" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2924" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B2924" t="s">
         <v>5835</v>
-      </c>
-      <c r="B2924" t="s">
-        <v>5836</v>
       </c>
     </row>
     <row r="2925" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2925" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B2925" t="s">
         <v>5837</v>
-      </c>
-      <c r="B2925" t="s">
-        <v>5838</v>
       </c>
     </row>
     <row r="2926" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2926" t="s">
+        <v>5838</v>
+      </c>
+      <c r="B2926" t="s">
         <v>5839</v>
-      </c>
-      <c r="B2926" t="s">
-        <v>5840</v>
       </c>
     </row>
     <row r="2927" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2927" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B2927" t="s">
         <v>5841</v>
-      </c>
-      <c r="B2927" t="s">
-        <v>5842</v>
       </c>
     </row>
     <row r="2928" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2928" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B2928" t="s">
         <v>5843</v>
-      </c>
-      <c r="B2928" t="s">
-        <v>5844</v>
       </c>
     </row>
     <row r="2929" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2929" t="s">
+        <v>5844</v>
+      </c>
+      <c r="B2929" t="s">
         <v>5845</v>
-      </c>
-      <c r="B2929" t="s">
-        <v>5846</v>
       </c>
     </row>
     <row r="2930" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2930" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B2930" t="s">
         <v>5847</v>
-      </c>
-      <c r="B2930" t="s">
-        <v>5848</v>
       </c>
     </row>
     <row r="2931" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2931" t="s">
+        <v>5848</v>
+      </c>
+      <c r="B2931" t="s">
         <v>5849</v>
-      </c>
-      <c r="B2931" t="s">
-        <v>5850</v>
       </c>
     </row>
     <row r="2932" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2932" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B2932" t="s">
         <v>5851</v>
-      </c>
-      <c r="B2932" t="s">
-        <v>5852</v>
       </c>
     </row>
     <row r="2933" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2933" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B2933" t="s">
         <v>5853</v>
-      </c>
-      <c r="B2933" t="s">
-        <v>5854</v>
       </c>
     </row>
     <row r="2934" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2934" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B2934" t="s">
         <v>5855</v>
-      </c>
-      <c r="B2934" t="s">
-        <v>5856</v>
       </c>
     </row>
     <row r="2935" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2935" t="s">
+        <v>5856</v>
+      </c>
+      <c r="B2935" t="s">
         <v>5857</v>
-      </c>
-      <c r="B2935" t="s">
-        <v>5858</v>
       </c>
     </row>
     <row r="2936" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2936" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B2936" t="s">
         <v>5859</v>
-      </c>
-      <c r="B2936" t="s">
-        <v>5860</v>
       </c>
     </row>
     <row r="2937" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2937" t="s">
+        <v>5860</v>
+      </c>
+      <c r="B2937" t="s">
         <v>5861</v>
-      </c>
-      <c r="B2937" t="s">
-        <v>5862</v>
       </c>
     </row>
     <row r="2938" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2938" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B2938" t="s">
         <v>5863</v>
-      </c>
-      <c r="B2938" t="s">
-        <v>5864</v>
       </c>
     </row>
     <row r="2939" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2939" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B2939" t="s">
         <v>5865</v>
-      </c>
-      <c r="B2939" t="s">
-        <v>5866</v>
       </c>
     </row>
     <row r="2940" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2940" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B2940" t="s">
         <v>5867</v>
-      </c>
-      <c r="B2940" t="s">
-        <v>5868</v>
       </c>
     </row>
     <row r="2941" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2941" t="s">
+        <v>5868</v>
+      </c>
+      <c r="B2941" t="s">
         <v>5869</v>
-      </c>
-      <c r="B2941" t="s">
-        <v>5870</v>
       </c>
     </row>
     <row r="2942" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2942" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B2942" t="s">
         <v>5871</v>
-      </c>
-      <c r="B2942" t="s">
-        <v>5872</v>
       </c>
     </row>
     <row r="2943" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2943" t="s">
+        <v>5872</v>
+      </c>
+      <c r="B2943" t="s">
         <v>5873</v>
-      </c>
-      <c r="B2943" t="s">
-        <v>5874</v>
       </c>
     </row>
     <row r="2944" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2944" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B2944" t="s">
         <v>5875</v>
-      </c>
-      <c r="B2944" t="s">
-        <v>5876</v>
       </c>
     </row>
     <row r="2945" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2945" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B2945" t="s">
         <v>5877</v>
-      </c>
-      <c r="B2945" t="s">
-        <v>5878</v>
       </c>
     </row>
     <row r="2946" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2946" t="s">
+        <v>5878</v>
+      </c>
+      <c r="B2946" t="s">
         <v>5879</v>
-      </c>
-      <c r="B2946" t="s">
-        <v>5880</v>
       </c>
     </row>
     <row r="2947" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2947" t="s">
+        <v>5880</v>
+      </c>
+      <c r="B2947" t="s">
         <v>5881</v>
-      </c>
-      <c r="B2947" t="s">
-        <v>5882</v>
       </c>
     </row>
     <row r="2948" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2948" t="s">
+        <v>5882</v>
+      </c>
+      <c r="B2948" t="s">
         <v>5883</v>
-      </c>
-      <c r="B2948" t="s">
-        <v>5884</v>
       </c>
     </row>
     <row r="2949" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2949" t="s">
+        <v>5884</v>
+      </c>
+      <c r="B2949" t="s">
         <v>5885</v>
-      </c>
-      <c r="B2949" t="s">
-        <v>5886</v>
       </c>
     </row>
     <row r="2950" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2950" t="s">
+        <v>5886</v>
+      </c>
+      <c r="B2950" t="s">
         <v>5887</v>
-      </c>
-      <c r="B2950" t="s">
-        <v>5888</v>
       </c>
     </row>
     <row r="2951" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2951" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B2951" t="s">
         <v>5889</v>
-      </c>
-      <c r="B2951" t="s">
-        <v>5890</v>
       </c>
     </row>
     <row r="2952" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2952" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B2952" t="s">
         <v>5891</v>
-      </c>
-      <c r="B2952" t="s">
-        <v>5892</v>
       </c>
     </row>
     <row r="2953" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2953" t="s">
+        <v>5892</v>
+      </c>
+      <c r="B2953" t="s">
         <v>5893</v>
-      </c>
-      <c r="B2953" t="s">
-        <v>5894</v>
       </c>
     </row>
     <row r="2954" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2954" t="s">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="B2954" t="s">
         <v>5895</v>
@@ -43161,382 +42892,6 @@
       </c>
       <c r="B3039" t="s">
         <v>6065</v>
-      </c>
-    </row>
-    <row r="3040" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3040" t="s">
-        <v>6066</v>
-      </c>
-      <c r="B3040" t="s">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="3041" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3041" t="s">
-        <v>6068</v>
-      </c>
-      <c r="B3041" t="s">
-        <v>6069</v>
-      </c>
-    </row>
-    <row r="3042" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3042" t="s">
-        <v>6070</v>
-      </c>
-      <c r="B3042" t="s">
-        <v>6071</v>
-      </c>
-    </row>
-    <row r="3043" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3043" t="s">
-        <v>6072</v>
-      </c>
-      <c r="B3043" t="s">
-        <v>6073</v>
-      </c>
-    </row>
-    <row r="3044" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3044" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B3044" t="s">
-        <v>6075</v>
-      </c>
-    </row>
-    <row r="3045" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3045" t="s">
-        <v>6076</v>
-      </c>
-      <c r="B3045" t="s">
-        <v>6077</v>
-      </c>
-    </row>
-    <row r="3046" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3046" t="s">
-        <v>6078</v>
-      </c>
-      <c r="B3046" t="s">
-        <v>6079</v>
-      </c>
-    </row>
-    <row r="3047" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3047" t="s">
-        <v>6080</v>
-      </c>
-      <c r="B3047" t="s">
-        <v>6081</v>
-      </c>
-    </row>
-    <row r="3048" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3048" t="s">
-        <v>6082</v>
-      </c>
-      <c r="B3048" t="s">
-        <v>6083</v>
-      </c>
-    </row>
-    <row r="3049" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3049" t="s">
-        <v>6084</v>
-      </c>
-      <c r="B3049" t="s">
-        <v>6085</v>
-      </c>
-    </row>
-    <row r="3050" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3050" t="s">
-        <v>6086</v>
-      </c>
-      <c r="B3050" t="s">
-        <v>6087</v>
-      </c>
-    </row>
-    <row r="3051" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3051" t="s">
-        <v>6088</v>
-      </c>
-      <c r="B3051" t="s">
-        <v>6089</v>
-      </c>
-    </row>
-    <row r="3052" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3052" t="s">
-        <v>6090</v>
-      </c>
-      <c r="B3052" t="s">
-        <v>6091</v>
-      </c>
-    </row>
-    <row r="3053" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3053" t="s">
-        <v>6092</v>
-      </c>
-      <c r="B3053" t="s">
-        <v>6093</v>
-      </c>
-    </row>
-    <row r="3054" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3054" t="s">
-        <v>6094</v>
-      </c>
-      <c r="B3054" t="s">
-        <v>6095</v>
-      </c>
-    </row>
-    <row r="3055" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3055" t="s">
-        <v>6096</v>
-      </c>
-      <c r="B3055" t="s">
-        <v>6097</v>
-      </c>
-    </row>
-    <row r="3056" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3056" t="s">
-        <v>6098</v>
-      </c>
-      <c r="B3056" t="s">
-        <v>6099</v>
-      </c>
-    </row>
-    <row r="3057" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3057" t="s">
-        <v>6100</v>
-      </c>
-      <c r="B3057" t="s">
-        <v>6101</v>
-      </c>
-    </row>
-    <row r="3058" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3058" t="s">
-        <v>6102</v>
-      </c>
-      <c r="B3058" t="s">
-        <v>6103</v>
-      </c>
-    </row>
-    <row r="3059" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3059" t="s">
-        <v>6104</v>
-      </c>
-      <c r="B3059" t="s">
-        <v>6105</v>
-      </c>
-    </row>
-    <row r="3060" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3060" t="s">
-        <v>6106</v>
-      </c>
-      <c r="B3060" t="s">
-        <v>6107</v>
-      </c>
-    </row>
-    <row r="3061" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3061" t="s">
-        <v>6108</v>
-      </c>
-      <c r="B3061" t="s">
-        <v>6109</v>
-      </c>
-    </row>
-    <row r="3062" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3062" t="s">
-        <v>6110</v>
-      </c>
-      <c r="B3062" t="s">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="3063" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3063" t="s">
-        <v>6112</v>
-      </c>
-      <c r="B3063" t="s">
-        <v>6113</v>
-      </c>
-    </row>
-    <row r="3064" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3064" t="s">
-        <v>6114</v>
-      </c>
-      <c r="B3064" t="s">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="3065" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3065" t="s">
-        <v>6116</v>
-      </c>
-      <c r="B3065" t="s">
-        <v>6117</v>
-      </c>
-    </row>
-    <row r="3066" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3066" t="s">
-        <v>6118</v>
-      </c>
-      <c r="B3066" t="s">
-        <v>6119</v>
-      </c>
-    </row>
-    <row r="3067" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3067" t="s">
-        <v>6120</v>
-      </c>
-      <c r="B3067" t="s">
-        <v>6121</v>
-      </c>
-    </row>
-    <row r="3068" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3068" t="s">
-        <v>6122</v>
-      </c>
-      <c r="B3068" t="s">
-        <v>6123</v>
-      </c>
-    </row>
-    <row r="3069" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3069" t="s">
-        <v>6124</v>
-      </c>
-      <c r="B3069" t="s">
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="3070" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3070" t="s">
-        <v>6126</v>
-      </c>
-      <c r="B3070" t="s">
-        <v>6127</v>
-      </c>
-    </row>
-    <row r="3071" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3071" t="s">
-        <v>6128</v>
-      </c>
-      <c r="B3071" t="s">
-        <v>6129</v>
-      </c>
-    </row>
-    <row r="3072" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3072" t="s">
-        <v>6130</v>
-      </c>
-      <c r="B3072" t="s">
-        <v>6131</v>
-      </c>
-    </row>
-    <row r="3073" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3073" t="s">
-        <v>6132</v>
-      </c>
-      <c r="B3073" t="s">
-        <v>6133</v>
-      </c>
-    </row>
-    <row r="3074" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3074" t="s">
-        <v>6134</v>
-      </c>
-      <c r="B3074" t="s">
-        <v>6135</v>
-      </c>
-    </row>
-    <row r="3075" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3075" t="s">
-        <v>6136</v>
-      </c>
-      <c r="B3075" t="s">
-        <v>6137</v>
-      </c>
-    </row>
-    <row r="3076" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3076" t="s">
-        <v>6138</v>
-      </c>
-      <c r="B3076" t="s">
-        <v>6139</v>
-      </c>
-    </row>
-    <row r="3077" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3077" t="s">
-        <v>6140</v>
-      </c>
-      <c r="B3077" t="s">
-        <v>6141</v>
-      </c>
-    </row>
-    <row r="3078" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3078" t="s">
-        <v>6142</v>
-      </c>
-      <c r="B3078" t="s">
-        <v>6143</v>
-      </c>
-    </row>
-    <row r="3079" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3079" t="s">
-        <v>6144</v>
-      </c>
-      <c r="B3079" t="s">
-        <v>6145</v>
-      </c>
-    </row>
-    <row r="3080" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3080" t="s">
-        <v>6146</v>
-      </c>
-      <c r="B3080" t="s">
-        <v>6147</v>
-      </c>
-    </row>
-    <row r="3081" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3081" t="s">
-        <v>6148</v>
-      </c>
-      <c r="B3081" t="s">
-        <v>6149</v>
-      </c>
-    </row>
-    <row r="3082" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3082" t="s">
-        <v>6150</v>
-      </c>
-      <c r="B3082" t="s">
-        <v>6151</v>
-      </c>
-    </row>
-    <row r="3083" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3083" t="s">
-        <v>6152</v>
-      </c>
-      <c r="B3083" t="s">
-        <v>6153</v>
-      </c>
-    </row>
-    <row r="3084" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3084" t="s">
-        <v>6154</v>
-      </c>
-      <c r="B3084" t="s">
-        <v>6155</v>
-      </c>
-    </row>
-    <row r="3085" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3085" t="s">
-        <v>6156</v>
-      </c>
-      <c r="B3085" t="s">
-        <v>6157</v>
-      </c>
-    </row>
-    <row r="3086" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3086" t="s">
-        <v>6158</v>
-      </c>
-      <c r="B3086" t="s">
-        <v>6159</v>
       </c>
     </row>
   </sheetData>
